--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lidia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8548F-2D4C-4A10-A550-370FE08BA798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233444E-1BF2-4933-A478-FAA8F98518D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -1860,10 +1860,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,16 +3347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3371,8 +3371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066925" y="3571875"/>
-          <a:ext cx="10153650" cy="2571750"/>
+          <a:off x="2181225" y="3524250"/>
+          <a:ext cx="10372725" cy="2571750"/>
           <a:chOff x="1819275" y="1247775"/>
           <a:chExt cx="4781550" cy="3000375"/>
         </a:xfrm>
@@ -3676,7 +3676,7 @@
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>R$ 990,00</a:t>
+              <a:t>R$ 600,00</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="3200"/>
           </a:p>
@@ -3779,13 +3779,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -3802,8 +3802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="1238250"/>
-          <a:ext cx="4762500" cy="1876425"/>
+          <a:off x="7372349" y="1238250"/>
+          <a:ext cx="5105401" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3870,7 +3870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9124950" y="1901374"/>
+          <a:off x="9410700" y="1901374"/>
           <a:ext cx="2231080" cy="729124"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3913,7 +3913,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
             </a:rPr>
-            <a:t>R$ 1.140,00</a:t>
+            <a:t>R$ 940,00</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3200"/>
         </a:p>
@@ -3924,13 +3924,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171721</xdr:rowOff>
     </xdr:to>
@@ -3947,8 +3947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7096125" y="1219199"/>
-          <a:ext cx="4762500" cy="428897"/>
+          <a:off x="7381874" y="1219199"/>
+          <a:ext cx="5114925" cy="428897"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -3994,14 +3994,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>321733</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>64220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>578908</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274108</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133778</xdr:rowOff>
     </xdr:to>
@@ -4018,7 +4018,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7341658" y="1959695"/>
+          <a:off x="7646458" y="1959695"/>
           <a:ext cx="1314450" cy="612483"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
@@ -4099,16 +4099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38098</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>147909</xdr:rowOff>
+      <xdr:rowOff>100284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4123,8 +4123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781174" y="3424237"/>
-          <a:ext cx="10144126" cy="428897"/>
+          <a:off x="2181223" y="3376612"/>
+          <a:ext cx="10363201" cy="428897"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -9521,7 +9521,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
@@ -9887,7 +9887,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="2"/>
@@ -10237,7 +10237,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
+    <pageField fld="6" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
@@ -10275,9 +10275,9 @@
   <data>
     <tabular pivotCacheId="985469147">
       <items count="3">
-        <i x="1"/>
+        <i x="1" s="1"/>
         <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -23014,7 +23014,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -23033,7 +23033,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="12">
-        <v>806</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -23041,7 +23041,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="12">
-        <v>1502</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -23049,7 +23049,7 @@
         <v>317</v>
       </c>
       <c r="D13" s="12">
-        <v>2308</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -23062,14 +23062,14 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F19" s="16">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$20)</f>
-        <v>990</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -23101,7 +23101,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="15">
-        <v>990</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -23109,7 +23109,7 @@
         <v>317</v>
       </c>
       <c r="C24" s="15">
-        <v>990</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
@@ -23122,7 +23122,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -23146,7 +23146,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="12">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -23154,11 +23154,11 @@
         <v>18</v>
       </c>
       <c r="C34" s="12">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="E34" s="16">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$31)</f>
-        <v>1140</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -23166,7 +23166,7 @@
         <v>317</v>
       </c>
       <c r="C35" s="12">
-        <v>1140</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -23180,7 +23180,7 @@
   <dimension ref="A2:AH401"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
